--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AA4D1218FD59EE7FE94E24554E73FEFFBE0FF659" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A91A71B7-2DF5-496C-A830-A893ABEE30BD}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>vol</t>
-  </si>
-  <si>
-    <t>2020-02-20</t>
-  </si>
-  <si>
-    <t>INNATURE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -109,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -414,75 +353,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>vol</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1582156800</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>5295</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0.72</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.74</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.64</v>
       </c>
-      <c r="H2">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2" t="n">
         <v>143703100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33980900</v>
       </c>
     </row>
   </sheetData>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,41 @@
         <v>33980900</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18646700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,41 @@
         <v>18646700</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16034500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,41 @@
         <v>16034500</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15569500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,76 @@
         <v>15569500</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2592500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4336600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +658,76 @@
         <v>4336600</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5686800</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4431800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,41 @@
         <v>4431800</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1332900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,6 +763,41 @@
         <v>1332900</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2175100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,6 +798,41 @@
         <v>2175100</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2248200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,6 +833,41 @@
         <v>2248200</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7312600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,76 @@
         <v>7312600</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1551500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I16" t="n">
+        <v>753800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +938,41 @@
         <v>753800</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1710700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,41 @@
         <v>1710700</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I18" t="n">
+        <v>847200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,41 @@
         <v>4360800</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I20" t="n">
+        <v>865200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,6 +1078,41 @@
         <v>865200</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I21" t="n">
+        <v>614700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,41 @@
         <v>614700</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1449800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,6 +1148,41 @@
         <v>1449800</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1639900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1183,41 @@
         <v>1639900</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I24" t="n">
+        <v>900300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,6 +1218,41 @@
         <v>900300</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1046200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,6 +1253,41 @@
         <v>1046200</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1378900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,6 +1288,41 @@
         <v>1378900</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1465900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,6 +1323,41 @@
         <v>1465900</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I28" t="n">
+        <v>896400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,6 +1358,41 @@
         <v>896400</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I29" t="n">
+        <v>789800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,6 +1393,41 @@
         <v>789800</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1364900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +1428,41 @@
         <v>1364900</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1387000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,6 +1463,41 @@
         <v>1387000</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I32" t="n">
+        <v>343500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,6 +1498,41 @@
         <v>343500</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>900500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,6 +1533,41 @@
         <v>900500</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2196300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,6 +1568,41 @@
         <v>2196300</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1936200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1603,6 +1603,41 @@
         <v>1936200</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2364100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,6 +1638,41 @@
         <v>2364100</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I37" t="n">
+        <v>640300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,6 +1673,41 @@
         <v>640300</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I38" t="n">
+        <v>926500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,6 +1708,41 @@
         <v>926500</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I39" t="n">
+        <v>298700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,6 +1743,41 @@
         <v>298700</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I40" t="n">
+        <v>621900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,6 +1778,41 @@
         <v>621900</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5199500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,6 +1813,41 @@
         <v>5199500</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1663700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,6 +1848,41 @@
         <v>1663700</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4826500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,6 +1883,76 @@
         <v>4826500</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1665700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,6 +1953,41 @@
         <v>1665700</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1509800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,6 +1988,111 @@
         <v>1509800</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I47" t="n">
+        <v>698500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I48" t="n">
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2048000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,6 +2093,41 @@
         <v>2048000</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1121400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,6 +2128,41 @@
         <v>1121400</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5089900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5295.xlsx
+++ b/data/5295.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,6 +2163,111 @@
         <v>5089900</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9490400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2542500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>INNATURE</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>484600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
